--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B59A221-0A08-6D48-961A-244FE5E03B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137A01B-1188-8047-BF8A-E064D23B7863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="870">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -2649,6 +2649,9 @@
   </si>
   <si>
     <t>2 pointers替代操作 &amp; 原list作修改</t>
+  </si>
+  <si>
+    <t>2 pointers替代操作 &amp; 原list作修改 &amp; 在出现不同数字的时候才重新计数</t>
   </si>
 </sst>
 </file>
@@ -3071,7 +3074,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17"/>
@@ -3080,7 +3083,7 @@
     <col min="2" max="2" width="55" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
     <col min="4" max="6" width="8.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="61.5" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="25" width="8.6640625" style="12" customWidth="1"/>
     <col min="26" max="16384" width="14.5" style="12"/>
   </cols>
@@ -3168,10 +3171,13 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>80</v>
+      <c r="E7" s="13" t="s">
+        <v>864</v>
       </c>
       <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18">
       <c r="A8" s="18">

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FDE2C7-1D6E-DD4A-9930-F75F7B37BF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297BC6D-1C39-AC47-BE69-AB98498DCC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="473">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>61. Rotate List                                           186. Reverse Words in a String II</t>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>位置相同和位置相异对比</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1714,20 +1720,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,7 +1950,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2102,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="3">
-        <v>299</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -10735,7 +10738,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10849,7 +10852,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>469</v>
       </c>
@@ -10864,124 +10867,132 @@
         <v>452</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="34"/>
       <c r="E16" s="30"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="35"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="31"/>
       <c r="D18" s="35"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="39"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
@@ -10989,7 +11000,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="41"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -11024,86 +11035,85 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="42"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="42"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="42"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="42"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="42"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="42"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="42"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="42"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="42"/>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="42"/>
+      <c r="G40" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="G20:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297BC6D-1C39-AC47-BE69-AB98498DCC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21FDFF-1BC7-2747-8652-456A2DBE97CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question list" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="476">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1418,18 +1418,9 @@
     <t>Leetcode - Python 知识点总结</t>
   </si>
   <si>
-    <t>27.Remove Element</t>
-  </si>
-  <si>
-    <t>26.Remove Duplicates from Sorted Array</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
-    <t>80.Remove Duplicates from Sorted Array II</t>
-  </si>
-  <si>
     <t>189. Rotate Array</t>
   </si>
   <si>
@@ -1439,7 +1430,25 @@
     <t>299. Bulls and Cows</t>
   </si>
   <si>
-    <t>位置相同和位置相异对比</t>
+    <t>位置相同和位置相异对比 &amp; 两个for循环</t>
+  </si>
+  <si>
+    <t>277. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>27. Remove Element</t>
+  </si>
+  <si>
+    <t>替换操作 &amp; 多个for循环</t>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
   </si>
 </sst>
 </file>
@@ -1949,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2064,8 +2073,8 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>277</v>
+      <c r="E8" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -10737,8 +10746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10803,10 +10812,10 @@
     </row>
     <row r="7" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="32" t="s">
@@ -10820,10 +10829,10 @@
     </row>
     <row r="8" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
@@ -10837,10 +10846,10 @@
     </row>
     <row r="9" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10854,13 +10863,13 @@
     </row>
     <row r="10" spans="1:7" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>467</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>470</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
@@ -10871,10 +10880,10 @@
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
@@ -10883,17 +10892,27 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>475</v>
+      </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21FDFF-1BC7-2747-8652-456A2DBE97CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227496A2-0134-154A-8B6D-F8914E29E0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="479">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1449,6 +1449,15 @@
   </si>
   <si>
     <t>997. Find the Town Judge</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>119. Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>二维列表</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2144,8 +2153,8 @@
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
-        <v>118</v>
+      <c r="D13" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -10746,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10914,14 +10923,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227496A2-0134-154A-8B6D-F8914E29E0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6FF320-D4BC-C445-AB82-639EB1E6BA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="474">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1421,43 +1421,31 @@
     <t>Array</t>
   </si>
   <si>
-    <t>189. Rotate Array</t>
-  </si>
-  <si>
-    <t>61. Rotate List                                           186. Reverse Words in a String II</t>
-  </si>
-  <si>
-    <t>299. Bulls and Cows</t>
-  </si>
-  <si>
-    <t>位置相同和位置相异对比 &amp; 两个for循环</t>
-  </si>
-  <si>
-    <t>277. Find the Celebrity</t>
-  </si>
-  <si>
-    <t>80. Remove Duplicates from Sorted Array II</t>
-  </si>
-  <si>
-    <t>26. Remove Duplicates from Sorted Array</t>
-  </si>
-  <si>
-    <t>27. Remove Element</t>
-  </si>
-  <si>
-    <t>替换操作 &amp; 多个for循环</t>
-  </si>
-  <si>
-    <t>997. Find the Town Judge</t>
-  </si>
-  <si>
-    <t>118. Pascal's Triangle</t>
-  </si>
-  <si>
-    <t>119. Pascal's Triangle II</t>
-  </si>
-  <si>
-    <t>二维列表</t>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>这道题我是用两个for循环来做的，但是貌似也可以用enumerate来做</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>String &amp; INT &amp; Reverse &amp; power</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>考察的知识点:
+1. [::-1]是只作用于string的
+2. int(021)会自动变成21
+3. power： 3**2 -&gt; 3的2次方</t>
+  </si>
+  <si>
+    <t>String &amp; INT &amp; Reverse</t>
+  </si>
+  <si>
+    <t>和第7题属于同一种题目，弄懂了上面这一题就非常简单了</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1749,6 +1737,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,7 +1959,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -10755,14 +10746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="12" style="22" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
@@ -10821,7 +10812,7 @@
     </row>
     <row r="7" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>465</v>
@@ -10833,15 +10824,15 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
@@ -10849,98 +10840,62 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="2" t="s">
-        <v>456</v>
+      <c r="G8" s="42" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="32" t="s">
         <v>452</v>
       </c>
+      <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>467</v>
-      </c>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>465</v>
-      </c>
+      <c r="A11" s="30"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>475</v>
-      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6FF320-D4BC-C445-AB82-639EB1E6BA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F5A7C-6AC5-5642-9F70-96FF5B32151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="480">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1446,6 +1446,26 @@
   </si>
   <si>
     <t>和第7题属于同一种题目，弄懂了上面这一题就非常简单了</t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>我觉得这道题是比之前的几道题难的，难的点在于math方面，这里的逻辑其实就是，如果前后满足特殊情况，那么前一位的罗马数字是直接忽略，然后还需要后面的罗马数字 - 前面的罗马数字的。而其他情况就是正常的按照dic里面相加减。</t>
+  </si>
+  <si>
+    <t>Dic &amp; String &amp; Math &amp; List</t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Array &amp; String &amp; Sort</t>
+  </si>
+  <si>
+    <t>考查知识点：
+1. 双重for循环 -&gt;其实enumerate就是这种双重for循环的原理
+2. sorted_list = sorted(unsorted_list, key=len)</t>
   </si>
 </sst>
 </file>
@@ -1732,14 +1752,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10747,7 +10767,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10823,7 +10843,7 @@
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="40" t="s">
         <v>467</v>
       </c>
     </row>
@@ -10840,7 +10860,7 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10857,27 +10877,43 @@
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="40" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9"/>
+      <c r="G10" s="40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="40" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
@@ -10886,7 +10922,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -10895,7 +10931,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
@@ -10904,7 +10940,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
@@ -10913,7 +10949,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
@@ -10922,7 +10958,7 @@
       <c r="D16" s="34"/>
       <c r="E16" s="30"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
@@ -10931,7 +10967,7 @@
       <c r="D17" s="35"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
@@ -10940,7 +10976,7 @@
       <c r="D18" s="35"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
@@ -10949,43 +10985,43 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
-      <c r="B23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F5A7C-6AC5-5642-9F70-96FF5B32151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EA998-29FD-EE4C-8714-708DF9E3D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="486">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1466,6 +1466,32 @@
     <t>考查知识点：
 1. 双重for循环 -&gt;其实enumerate就是这种双重for循环的原理
 2. sorted_list = sorted(unsorted_list, key=len)</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>这道题说是考查stack，但其实stack还是通过list来实现的，只不过stack的思想就是，先进后出的思想。
+考查知识点：
+1. dic.keys() -&gt; 抽取dictionary中的全部key，抽出来是list
+2. dic.values() -&gt; 抽取dictionary中的全部values，抽出来是list
+3. list.pop(i) -&gt; 跳出list中index = 1的数，如果没有填写i，那么就跳出最后一个数 -&gt; 就和stack结合起来了</t>
+  </si>
+  <si>
+    <t>Stack &amp; Dic &amp; List &amp; String</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>linked-list</t>
+  </si>
+  <si>
+    <t>考查知识点：
+1. 创建Linked list： head = ListNode(0) -&gt; 创建第一个节点是0的linked list
+2. Linked List组成：l1 -&gt; ListNode{val: 1, next: ListNode{val: 2, next: ListNode{val: 3, next: None}}} 
+3. L1.val：抽取linked list当前值，也就是1
+4. L1.next：抽取列表下一部分，也就是ListNode{val: 2, next: ListNode{val: 3, next: None}}</t>
   </si>
 </sst>
 </file>
@@ -10766,8 +10792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10915,23 +10941,39 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="127" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="G12" s="40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="145" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EA998-29FD-EE4C-8714-708DF9E3D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A45759-D90D-FE40-99FB-AC3906E33DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question list" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="6" r:id="rId2"/>
+    <sheet name="Summary - Easy" sheetId="6" r:id="rId2"/>
+    <sheet name="Summary - Medium" sheetId="8" r:id="rId3"/>
+    <sheet name="Summary - Hard" sheetId="9" r:id="rId4"/>
+    <sheet name="算法思想 - 双指针" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="495">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1493,12 +1496,62 @@
 3. L1.val：抽取linked list当前值，也就是1
 4. L1.next：抽取列表下一部分，也就是ListNode{val: 2, next: ListNode{val: 3, next: None}}</t>
   </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Array &amp; Two Pointer</t>
+  </si>
+  <si>
+    <t>这是一道比较典型的two pointer的题目了，原理其实就是一个点是移动的往后面扫，而另外一个点则是满足某个条件才会移动</t>
+  </si>
+  <si>
+    <t>Leetcode 题解链接</t>
+  </si>
+  <si>
+    <t>Leetcode 题解链接 - 双指针</t>
+  </si>
+  <si>
+    <t>算法思想 - 双指针</t>
+  </si>
+  <si>
+    <r>
+      <t>中心思想：双指针主要用于遍历数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>两个指针指向不同的元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，从而协同完成任务。</t>
+    </r>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>two pointer如果涉及到两个for循环而且是遍历型的那么要注意，这个很可能最后会说是time limit exceeded，所以这里可以用两个办法求解：
+1. 用dic，也就是说，我们去扫数，如果字典里面没有对应的数，那么我们就把这个数和对应的index加入字典中，然后继续扫，如果有对应的数，那么就说明我们之前已经找到了当前数对应的另一半，那么就返回这两个值。这样子整个list我们只需要扫一遍
+2. 利用two pointer的思想，前后开始扫。保证前面的小于后面的，如果我们相加的数等于target，那么返回两个值；如果大于target其实就说明后面的数大了（因为这是一个已经排序了的从小到大的列表），那么我们就将后面的index往前挪一位；如果小于target就说明前面的数笑了，那么我们就将前面的index往后挪一位</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1562,6 +1615,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1613,7 +1694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1645,29 +1726,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1781,14 +1843,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10790,15 +10851,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="12" style="22" customWidth="1"/>
@@ -10808,9 +10869,12 @@
     <col min="8" max="16384" width="28" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>489</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -10974,6 +11038,336 @@
       <c r="G13" s="40" t="s">
         <v>485</v>
       </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{53C84DB9-1C6E-4A42-A75B-3298611E0DAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC53DF8-8197-B048-ADB0-EAA21C88F254}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
@@ -11029,80 +11423,694 @@
       <c r="F19" s="32"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="37"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="37"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9D1FCE38-F2F4-D049-AE88-8B6000B57D89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332EC930-3D40-734E-97F1-418978286549}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{CAAEFF82-7E22-8D4D-B993-CFA2AB0D9749}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -11120,72 +12128,10 @@
       <c r="F30" s="32"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="2:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="39"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:B23"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{06831451-4B30-3D41-B70F-1D9C96E14549}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A45759-D90D-FE40-99FB-AC3906E33DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690333FF-C702-A442-8D70-50DC166D3721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="498">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1545,6 +1545,16 @@
     <t>two pointer如果涉及到两个for循环而且是遍历型的那么要注意，这个很可能最后会说是time limit exceeded，所以这里可以用两个办法求解：
 1. 用dic，也就是说，我们去扫数，如果字典里面没有对应的数，那么我们就把这个数和对应的index加入字典中，然后继续扫，如果有对应的数，那么就说明我们之前已经找到了当前数对应的另一半，那么就返回这两个值。这样子整个list我们只需要扫一遍
 2. 利用two pointer的思想，前后开始扫。保证前面的小于后面的，如果我们相加的数等于target，那么返回两个值；如果大于target其实就说明后面的数大了（因为这是一个已经排序了的从小到大的列表），那么我们就将后面的index往前挪一位；如果小于target就说明前面的数笑了，那么我们就将前面的index往后挪一位</t>
+  </si>
+  <si>
+    <t>633. Sum of Square Numbers</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>这道题和167是一模一样的思路，都是两个指针，一个往后扫，一个往前扫，然后判断和target的大小；
+但是因为这道题我们两个数是可以一样的，所以这里并不适合用dic来解题</t>
   </si>
 </sst>
 </file>
@@ -10851,10 +10861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G28"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11227,6 +11237,9 @@
       <c r="F36" s="32"/>
       <c r="G36" s="39"/>
     </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D44" s="32"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{53C84DB9-1C6E-4A42-A75B-3298611E0DAD}"/>
@@ -11240,7 +11253,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11397,7 +11410,9 @@
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="21" t="s">
+        <v>495</v>
+      </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="35"/>
@@ -11865,7 +11880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -11975,14 +11990,24 @@
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690333FF-C702-A442-8D70-50DC166D3721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB023706-C19D-2B46-9124-4836E8708BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="Summary - Medium" sheetId="8" r:id="rId3"/>
     <sheet name="Summary - Hard" sheetId="9" r:id="rId4"/>
     <sheet name="算法思想 - 双指针" sheetId="7" r:id="rId5"/>
+    <sheet name="数据结构 - 链表" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="501">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1421,15 +1422,9 @@
     <t>Leetcode - Python 知识点总结</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>1. Two Sum</t>
   </si>
   <si>
-    <t>这道题我是用两个for循环来做的，但是貌似也可以用enumerate来做</t>
-  </si>
-  <si>
     <t>7. Reverse Integer</t>
   </si>
   <si>
@@ -1437,12 +1432,6 @@
   </si>
   <si>
     <t>9. Palindrome Number</t>
-  </si>
-  <si>
-    <t>考察的知识点:
-1. [::-1]是只作用于string的
-2. int(021)会自动变成21
-3. power： 3**2 -&gt; 3的2次方</t>
   </si>
   <si>
     <t>String &amp; INT &amp; Reverse</t>
@@ -1485,9 +1474,6 @@
   </si>
   <si>
     <t>21. Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>linked-list</t>
   </si>
   <si>
     <t>考查知识点：
@@ -1555,6 +1541,35 @@
   <si>
     <t>这道题和167是一模一样的思路，都是两个指针，一个往后扫，一个往前扫，然后判断和target的大小；
 但是因为这道题我们两个数是可以一样的，所以这里并不适合用dic来解题</t>
+  </si>
+  <si>
+    <t>第几周</t>
+  </si>
+  <si>
+    <t>第一周</t>
+  </si>
+  <si>
+    <t>Array &amp; Dic</t>
+  </si>
+  <si>
+    <t>这道题我是用两个for循环来做的，但是貌似也可以用enumerate来做
+其实这一道题和167 &amp; 633都是比较类似的，基本都是围绕着two pointer以及dic进行变形，这里总结如下：
+1. 如果index不能重复且是有顺序的，那么two pointer或者dic都可以用
+2. 如果index不能重复但是没有顺序的，则考虑dic
+3. 如果index可以重复且有顺序，那么考虑two pointer</t>
+  </si>
+  <si>
+    <t>考察的知识点:
+1. [::-1]是只作用于string的
+2. int(021)会自动变成21
+3. power： 3**2 -&gt; 3的2次方
+4. x[2:4:1] -&gt;从index = 2 跳到index = 3，每次跳1步 -&gt;这里停止的index是不包括的</t>
+  </si>
+  <si>
+    <t>第二周</t>
+  </si>
+  <si>
+    <t>Linked List</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1856,6 +1871,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10861,10 +10914,1038 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="28" style="22"/>
+    <col min="9" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="109" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="109" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="48" customFormat="1" ht="127" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="53" customFormat="1" ht="145" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{53C84DB9-1C6E-4A42-A75B-3298611E0DAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC53DF8-8197-B048-ADB0-EAA21C88F254}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="28" style="22"/>
+    <col min="9" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9D1FCE38-F2F4-D049-AE88-8B6000B57D89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332EC930-3D40-734E-97F1-418978286549}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="28" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{CAAEFF82-7E22-8D4D-B993-CFA2AB0D9749}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10881,78 +11962,71 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B7" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E7" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>469</v>
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>483</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
@@ -10961,194 +12035,147 @@
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="40" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C9" s="31"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>483</v>
+      </c>
       <c r="D9" s="32" t="s">
         <v>452</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="G9" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>478</v>
-      </c>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="127" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>482</v>
-      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="145" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>484</v>
-      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>487</v>
-      </c>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="D14" s="32"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="40" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -11166,30 +12193,19 @@
       <c r="F26" s="32"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>452</v>
-      </c>
+    <row r="28" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="31"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -11201,59 +12217,20 @@
       <c r="F30" s="32"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D44" s="32"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{53C84DB9-1C6E-4A42-A75B-3298611E0DAD}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{06831451-4B30-3D41-B70F-1D9C96E14549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC53DF8-8197-B048-ADB0-EAA21C88F254}">
-  <dimension ref="A1:G36"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4306E-F9F1-1141-B5AB-3BEE13F6221B}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11268,649 +12245,21 @@
     <col min="8" max="16384" width="28" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="39"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{9D1FCE38-F2F4-D049-AE88-8B6000B57D89}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332EC930-3D40-734E-97F1-418978286549}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="28" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="39"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{CAAEFF82-7E22-8D4D-B993-CFA2AB0D9749}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="62.1640625" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="28" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B2" s="41"/>
       <c r="D2" s="18"/>
@@ -11918,23 +12267,23 @@
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>448</v>
       </c>
@@ -11957,12 +12306,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>487</v>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="145" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>500</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
@@ -11970,46 +12319,28 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="40" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="G8" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>493</v>
-      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
-        <v>452</v>
-      </c>
+      <c r="E10" s="32"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="40" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -12018,7 +12349,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="31"/>
@@ -12027,7 +12358,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -12036,7 +12367,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="31"/>
@@ -12045,7 +12376,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -12054,7 +12385,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -12155,7 +12486,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{06831451-4B30-3D41-B70F-1D9C96E14549}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9FAB9DFC-DB77-BD42-8E68-2D6BBB857ABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB023706-C19D-2B46-9124-4836E8708BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9283E7D-7F9C-9445-AC00-7D8FBD84F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="504">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1570,6 +1570,18 @@
   </si>
   <si>
     <t>Linked List</t>
+  </si>
+  <si>
+    <t>345. Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Two Pointer &amp; String &amp; Array</t>
+  </si>
+  <si>
+    <t>几个知识点：
+1. while循环不会因为满足一个if然后处理后就进入下一个循环，肯定是会把当前的while全部走一遍
+2. array的元素替换直接s[i],s[j] = s[i],s[i]，这样子我们就把i和j进行了替换
+3. list变成string -&gt; ''.join(list) -&gt;此处''里面可以放任何标点符号，如果我们直接什么都没有，那么就每个元素直接相连，如果是空格，那么每个元素之间有一个空格组成string</t>
   </si>
 </sst>
 </file>
@@ -10916,8 +10928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11204,12 +11216,24 @@
       <c r="G20" s="39"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="32"/>
+    <row r="21" spans="1:8" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A21" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="32"/>
@@ -11942,10 +11966,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11960,7 +11984,7 @@
     <col min="8" max="16384" width="28" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>487</v>
       </c>
@@ -11972,7 +11996,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>488</v>
       </c>
@@ -11982,23 +12006,23 @@
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>448</v>
       </c>
@@ -12021,7 +12045,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>482</v>
       </c>
@@ -12038,7 +12062,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>489</v>
       </c>
@@ -12054,7 +12078,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>491</v>
       </c>
@@ -12073,16 +12097,26 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="31"/>
@@ -12091,7 +12125,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -12100,7 +12134,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="31"/>
@@ -12109,7 +12143,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -12118,7 +12152,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9283E7D-7F9C-9445-AC00-7D8FBD84F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54DB7C-47B9-7446-9F87-DD7738182511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="506">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1582,6 +1582,14 @@
 1. while循环不会因为满足一个if然后处理后就进入下一个循环，肯定是会把当前的while全部走一遍
 2. array的元素替换直接s[i],s[j] = s[i],s[i]，这样子我们就把i和j进行了替换
 3. list变成string -&gt; ''.join(list) -&gt;此处''里面可以放任何标点符号，如果我们直接什么都没有，那么就每个元素直接相连，如果是空格，那么每个元素之间有一个空格组成string</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>这其实就是很正常的双指针问题，但是难点在于要把一个字母给去掉。
+1. 我们的定位是可以双重定位：s[i:j][::-1] -&gt;也就是把i到j的元素给反过来
+2. while循环的应用</t>
   </si>
 </sst>
 </file>
@@ -10928,8 +10936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11242,12 +11250,24 @@
       <c r="G22" s="39"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="32"/>
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="32"/>
@@ -11969,7 +11989,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12078,52 +12098,62 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B11" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C11" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="40" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D11" s="32" t="s">
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54DB7C-47B9-7446-9F87-DD7738182511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D0737-C2E4-484D-974B-30A8E5DE70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="508">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1590,6 +1590,14 @@
     <t>这其实就是很正常的双指针问题，但是难点在于要把一个字母给去掉。
 1. 我们的定位是可以双重定位：s[i:j][::-1] -&gt;也就是把i到j的元素给反过来
 2. while循环的应用</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>这道题其实本质就是遍历左右边所有值：
+1. 方法一直接就是找到后面为0的，然后开始把Nums2给拼接上去
+2. 找到nums2 比 nums1小的值，然后插入，最后取一个切片即可</t>
   </si>
 </sst>
 </file>
@@ -10936,8 +10944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11176,12 +11184,24 @@
       <c r="G15" s="39"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="32"/>
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="32"/>
+      <c r="G16" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="32"/>
@@ -11986,10 +12006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12082,12 +12102,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>483</v>
+        <v>506</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>492</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>452</v>
@@ -12095,15 +12115,18 @@
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>483</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>452</v>
@@ -12111,75 +12134,82 @@
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H11" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B12" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C12" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="40" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B13" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -12201,13 +12231,16 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="30"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -12219,14 +12252,13 @@
       <c r="F20" s="32"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -12239,7 +12271,8 @@
       <c r="F23" s="32"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -12280,6 +12313,12 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D0737-C2E4-484D-974B-30A8E5DE70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8610FE8-E716-3345-B5BD-3960E65FFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="511">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1598,6 +1598,15 @@
     <t>这道题其实本质就是遍历左右边所有值：
 1. 方法一直接就是找到后面为0的，然后开始把Nums2给拼接上去
 2. 找到nums2 比 nums1小的值，然后插入，最后取一个切片即可</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Two Pointer &amp; Linked List</t>
+  </si>
+  <si>
+    <t>其实只需要把握一个关键：如果是circle链表，那么我们跑得快的总会和跑得慢的相遇</t>
   </si>
 </sst>
 </file>
@@ -10944,8 +10953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="B14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11203,12 +11212,24 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="32"/>
+    <row r="17" spans="1:8" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D18" s="32"/>
@@ -12006,10 +12027,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12102,7 +12123,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>506</v>
       </c>
@@ -12117,16 +12138,14 @@
       <c r="G9" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>483</v>
+        <v>508</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>509</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>452</v>
@@ -12134,15 +12153,16 @@
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>483</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>452</v>
@@ -12150,75 +12170,82 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H12" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B13" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="40" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B14" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -12240,13 +12267,16 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="30"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -12258,14 +12288,13 @@
       <c r="F21" s="32"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -12278,7 +12307,8 @@
       <c r="F24" s="32"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -12319,6 +12349,12 @@
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12332,8 +12368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4306E-F9F1-1141-B5AB-3BEE13F6221B}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12427,12 +12463,22 @@
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
-      <c r="D9" s="32"/>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>

--- a/Python/leetcode - python.xlsx
+++ b/Python/leetcode - python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Documents/Github/LeetCode_Practice/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8610FE8-E716-3345-B5BD-3960E65FFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C76272F-D25C-3842-BA1F-3900310672E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="514">
   <si>
     <t>1.3.1. Array</t>
   </si>
@@ -1607,6 +1607,15 @@
   </si>
   <si>
     <t>其实只需要把握一个关键：如果是circle链表，那么我们跑得快的总会和跑得慢的相遇</t>
+  </si>
+  <si>
+    <t>524. Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Two Pointer &amp; Sorted</t>
+  </si>
+  <si>
+    <t>这道题解题的关键还是在于排序的问题，也就是我们如何可以实现list里面的string以长度从长到短进行排列，对于这种比较复杂的排序，我们的key一般是用lambda，这样子可以比较灵活的处理</t>
   </si>
 </sst>
 </file>
@@ -10951,10 +10960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7B009-BE4C-E841-9CF7-3C6F31DFD994}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11185,20 +11194,31 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="G15" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>452</v>
@@ -11206,18 +11226,18 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="39" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>509</v>
+        <v>489</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>483</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>452</v>
@@ -11225,25 +11245,37 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="39" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="32"/>
+    <row r="18" spans="1:8" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" s="33" customFormat="1" ht="211" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>483</v>
+        <v>504</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>492</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>452</v>
@@ -11251,38 +11283,25 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="39" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
+    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="39"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>452</v>
-      </c>
+    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>499</v>
-      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="32"/>
@@ -11291,55 +11310,15 @@
       <c r="G22" s="39"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>452</v>
-      </c>
+    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D31" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11351,10 +11330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC53DF8-8197-B048-ADB0-EAA21C88F254}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11425,29 +11404,48 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="31"/>
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>489</v>
+      </c>
       <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -11455,251 +11453,139 @@
       <c r="G9" s="40"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="30"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+    <row r="15" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="40"/>
+    <row r="16" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>489</v>
-      </c>
+    <row r="17" spans="2:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="40"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="2:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="32"/>
     </row>
-    <row r="19" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+    <row r="19" spans="2:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
+    <row r="20" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+    <row r="21" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+    <row r="22" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+    <row r="23" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
+    <row r="24" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="39"/>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="39"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="39"/>
       <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12027,10 +11913,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85032A1-959C-3D46-B6F6-FD003C0F386D}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12188,73 +12074,77 @@
       <c r="G12" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" s="30" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" s="32"/>
+        <v>512</v>
+      </c>
       <c r="E13" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D15" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -12276,13 +12166,16 @@
       <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="30"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -12294,14 +12187,13 @@
       <c r="F22" s="32"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -12314,7 +12206,8 @@
       <c r="F25" s="32"/>
       <c r="G25" s="39"/>
     </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -12355,6 +12248,12 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="4:7" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12368,7 +12267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4306E-F9F1-1141-B5AB-3BEE13F6221B}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
